--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/4 INVENTARIOS/6 ANALITICA DE INVENTARIOS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/4 INVENTARIOS/6 ANALITICA DE INVENTARIOS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41259CFB-430A-4130-9E20-737299362B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="6750"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario de Artículos" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Código de Artículo</t>
   </si>
@@ -85,18 +86,12 @@
     <t>Elaboro:</t>
   </si>
   <si>
-    <t xml:space="preserve">                       Auditoria de Estados Financieros</t>
-  </si>
-  <si>
     <t>Fecha:</t>
   </si>
   <si>
     <t>Reviso:</t>
   </si>
   <si>
-    <t xml:space="preserve">             Del 01 de enero al 31 de diciembre del 2024</t>
-  </si>
-  <si>
     <t>Observaciones:</t>
   </si>
   <si>
@@ -130,17 +125,26 @@
     <t xml:space="preserve">                                                            Auditor </t>
   </si>
   <si>
-    <t xml:space="preserve">                   ANALISIS DE INVENTARIOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                         Guatemala</t>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoria de Estados Financieros</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANALISIS DE INVENTARIOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-5 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +207,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -248,16 +260,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -280,6 +289,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,7 +354,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -384,87 +408,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10534649" y="742950"/>
-          <a:ext cx="847725" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1500" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>D-5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1500" b="1">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1285875</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -478,7 +421,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CuadroTexto 3"/>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -539,7 +488,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -603,7 +558,7 @@
         <xdr:cNvPr id="6" name="Conector recto 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D546D8-61D5-48B5-BE3F-DC2F197C992D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -658,7 +613,7 @@
         <xdr:cNvPr id="7" name="Conector recto 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357CC929-BBA3-4C3B-83EF-012783752697}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -713,7 +668,7 @@
         <xdr:cNvPr id="8" name="Elipse 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7A4C64-07CC-4F71-B9E3-26D5D20E01AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -781,7 +736,7 @@
         <xdr:cNvPr id="9" name="Triángulo isósceles 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C06A8B-F4A4-4998-AA59-1BD3F6DDE7E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -835,17 +790,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B14:I19">
-  <autoFilter ref="B14:I19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B14:I19">
+  <autoFilter ref="B14:I19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Código de Artículo" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Descripción" dataDxfId="6"/>
-    <tableColumn id="3" name="Cantidad Inicial" dataDxfId="5"/>
-    <tableColumn id="4" name="Entradas" dataDxfId="4"/>
-    <tableColumn id="5" name="Salidas" dataDxfId="3"/>
-    <tableColumn id="6" name="Cantidad Final" dataDxfId="2"/>
-    <tableColumn id="7" name="Costo Unitario" dataDxfId="1"/>
-    <tableColumn id="8" name="Valor Total" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código de Artículo" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripción" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Cantidad Inicial" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Entradas" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Salidas" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Cantidad Final" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Costo Unitario" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Valor Total" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1113,11 +1068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,52 +1090,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
+      <c r="J7" s="20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="J8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="J9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="4"/>
+      <c r="J10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="4" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="5"/>
+      <c r="J11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="J9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="J10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="J11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="16"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -1211,264 +1172,268 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>100</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>50</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>30</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>120</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>2</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>200</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>30</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>50</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>180</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>3</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>150</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>20</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>25</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>145</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>4</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>80</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>40</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>20</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>100</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8">
         <v>530</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>140</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>125</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>545</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>0</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="14"/>
+      <c r="G43" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="15"/>
-      <c r="G43" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>36</v>
+      <c r="H44" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B21:I21"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
